--- a/FMAID To SNOMED_Updated.xlsx
+++ b/FMAID To SNOMED_Updated.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B422"/>
+  <dimension ref="A1:C422"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,11 @@
           <t>SNOMEDCT</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -452,6 +457,11 @@
       <c r="B2" t="n">
         <v>15825003</v>
       </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Aorta</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -460,6 +470,11 @@
       <c r="B3" t="n">
         <v>54247002</v>
       </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Ascending Aorta</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -468,6 +483,11 @@
       <c r="B4" t="n">
         <v>425444002</v>
       </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Brachiocephalic Artery</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -476,6 +496,11 @@
       <c r="B5" t="n">
         <v>69105007</v>
       </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Common Carotid Artery</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -484,6 +509,11 @@
       <c r="B6" t="n">
         <v>721028001</v>
       </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Carotid Artery</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -492,6 +522,11 @@
       <c r="B7" t="n">
         <v>721033002</v>
       </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Carotid Artery</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -500,6 +535,11 @@
       <c r="B8" t="n">
         <v>57850000</v>
       </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Celiac Artery</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -508,6 +548,11 @@
       <c r="B9" t="n">
         <v>41801008</v>
       </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Coronary Artery</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -516,6 +561,11 @@
       <c r="B10" t="n">
         <v>50018008</v>
       </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Coronary Artery Left</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -524,6 +574,11 @@
       <c r="B11" t="n">
         <v>13647002</v>
       </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Coronary Artery Right</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -532,6 +587,11 @@
       <c r="B12" t="n">
         <v>113270003</v>
       </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Femoral Artery Left</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -540,6 +600,11 @@
       <c r="B13" t="n">
         <v>69833005</v>
       </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Femoral Artery Right</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -548,6 +613,11 @@
       <c r="B14" t="n">
         <v>74200005</v>
       </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Hypophyseal Artery Inferior</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -556,6 +626,11 @@
       <c r="B15" t="n">
         <v>55601007</v>
       </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Hypophyseal Artery Superior</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -564,6 +639,11 @@
       <c r="B16" t="n">
         <v>283892001</v>
       </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>External iliac artery Left</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -572,6 +652,11 @@
       <c r="B17" t="n">
         <v>283797001</v>
       </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>External iliac artery Right</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -580,6 +665,11 @@
       <c r="B18" t="n">
         <v>283696001</v>
       </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Internal iliac artery Left</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -588,6 +678,11 @@
       <c r="B19" t="n">
         <v>283593004</v>
       </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Internal iliac artery Right</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -596,6 +691,11 @@
       <c r="B20" t="n">
         <v>77428008</v>
       </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Common iliac artery Left</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -604,6 +704,11 @@
       <c r="B21" t="n">
         <v>15567000</v>
       </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Common iliac artery Right</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -612,6 +717,11 @@
       <c r="B22" t="n">
         <v>59438005</v>
       </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Anterior interventricular branch of LCA (left anterior descending artery)</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -620,6 +730,11 @@
       <c r="B23" t="n">
         <v>33795007</v>
       </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Inferior mesenteric artery</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -628,6 +743,11 @@
       <c r="B24" t="n">
         <v>42258001</v>
       </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Superior mesenteric artery</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -636,6 +756,11 @@
       <c r="B25" t="n">
         <v>81040000</v>
       </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Pulmonary Artery</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -644,6 +769,11 @@
       <c r="B26" t="n">
         <v>36765005</v>
       </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Subclavian Artery</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -652,6 +782,11 @@
       <c r="B27" t="n">
         <v>85235006</v>
       </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Subclavian Artery Left</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -660,6 +795,11 @@
       <c r="B28" t="n">
         <v>29700009</v>
       </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Subclavian Artery Right</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -668,6 +808,11 @@
       <c r="B29" t="n">
         <v>85234005</v>
       </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Vertebral arteries</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -676,6 +821,11 @@
       <c r="B30" t="n">
         <v>50291007</v>
       </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Vertebral arteries left</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -684,6 +834,11 @@
       <c r="B31" t="n">
         <v>42384005</v>
       </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Vertebral arteries right</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -692,6 +847,11 @@
       <c r="B32" t="n">
         <v>719538003</v>
       </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Acetabulum</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -700,6 +860,11 @@
       <c r="B33" t="n">
         <v>719537008</v>
       </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Acetabulum</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -708,6 +873,11 @@
       <c r="B34" t="n">
         <v>37783008</v>
       </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Acetabulum</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -716,6 +886,11 @@
       <c r="B35" t="n">
         <v>123956007</v>
       </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Anus</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -724,6 +899,11 @@
       <c r="B36" t="n">
         <v>66754008</v>
       </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Appendix</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -732,6 +912,11 @@
       <c r="B37" t="n">
         <v>77578007</v>
       </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Arytenoid cartilage</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -740,6 +925,11 @@
       <c r="B38" t="n">
         <v>59652004</v>
       </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Atrium of the heart</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -748,6 +938,11 @@
       <c r="B39" t="n">
         <v>82471001</v>
       </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Atrium of the heart Left</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -756,6 +951,11 @@
       <c r="B40" t="n">
         <v>73829009</v>
       </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Atrium of the heart Right</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -764,6 +964,11 @@
       <c r="B41" t="n">
         <v>28273000</v>
       </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Common bile duct</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -772,6 +977,11 @@
       <c r="B42" t="n">
         <v>89837001</v>
       </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Urinary Bladder</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -780,6 +990,11 @@
       <c r="B43" t="n">
         <v>393006</v>
       </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Bladder Wall</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -788,6 +1003,11 @@
       <c r="B44" t="n">
         <v>272673000</v>
       </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Bone</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -796,6 +1016,11 @@
       <c r="B45" t="n">
         <v>52374004</v>
       </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Ethmoid Bone</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -804,6 +1029,11 @@
       <c r="B46" t="n">
         <v>74872008</v>
       </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Frontal Bone</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -812,6 +1042,11 @@
       <c r="B47" t="n">
         <v>21387005</v>
       </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Hyoid Bone</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -820,6 +1055,11 @@
       <c r="B48" t="n">
         <v>22356005</v>
       </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Ilium</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -828,6 +1068,11 @@
       <c r="B49" t="n">
         <v>773840006</v>
       </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Ilium Left</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -836,6 +1081,11 @@
       <c r="B50" t="n">
         <v>773841005</v>
       </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Ilium Right</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -844,6 +1094,11 @@
       <c r="B51" t="n">
         <v>421793000</v>
       </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Incus</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -852,6 +1107,11 @@
       <c r="B52" t="n">
         <v>773842003</v>
       </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Ischium Left</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -860,6 +1120,11 @@
       <c r="B53" t="n">
         <v>773843008</v>
       </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Ischium Right</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -868,6 +1133,11 @@
       <c r="B54" t="n">
         <v>6229007</v>
       </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Lacrimal Bone</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -876,6 +1146,11 @@
       <c r="B55" t="n">
         <v>91609006</v>
       </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Mandible</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -884,6 +1159,11 @@
       <c r="B56" t="n">
         <v>59066005</v>
       </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Both Mastoids</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -892,6 +1172,11 @@
       <c r="B57" t="n">
         <v>763871003</v>
       </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Left Mastoid Bone</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -900,6 +1185,11 @@
       <c r="B58" t="n">
         <v>763872005</v>
       </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Right Mastoid Bone</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -908,6 +1198,11 @@
       <c r="B59" t="n">
         <v>74386004</v>
       </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Nasal Bone</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -916,6 +1211,11 @@
       <c r="B60" t="n">
         <v>31640002</v>
       </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Occipital Bone</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -924,6 +1224,11 @@
       <c r="B61" t="n">
         <v>51283005</v>
       </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Palatine bone</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -932,6 +1237,11 @@
       <c r="B62" t="n">
         <v>24924006</v>
       </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Parietal bone</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -940,6 +1250,11 @@
       <c r="B63" t="n">
         <v>1268793002</v>
       </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Parietal bone Left</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -948,6 +1263,11 @@
       <c r="B64" t="n">
         <v>1268794008</v>
       </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Parietal bone Right</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -956,6 +1276,11 @@
       <c r="B65" t="n">
         <v>118645006</v>
       </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Pelvic Bones (Bony Pelvis)</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -964,6 +1289,11 @@
       <c r="B66" t="n">
         <v>737466009</v>
       </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Bony Pelvis Left</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -972,6 +1302,11 @@
       <c r="B67" t="n">
         <v>737465008</v>
       </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Bony Pelvis Right</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -980,6 +1315,11 @@
       <c r="B68" t="n">
         <v>73117003</v>
       </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Sphenoid Bone</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -988,6 +1328,11 @@
       <c r="B69" t="n">
         <v>60911003</v>
       </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Temporal Bone</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -996,6 +1341,11 @@
       <c r="B70" t="n">
         <v>763817008</v>
       </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Temporal Bone Left</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -1004,6 +1354,11 @@
       <c r="B71" t="n">
         <v>763816004</v>
       </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Temporal Bone Right</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -1012,6 +1367,11 @@
       <c r="B72" t="n">
         <v>787058006</v>
       </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Zygomatic Bone Left</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -1020,6 +1380,11 @@
       <c r="B73" t="n">
         <v>787059003</v>
       </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Zygomatic Bone Right</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -1028,6 +1393,11 @@
       <c r="B74" t="n">
         <v>13881006</v>
       </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Zygomatic Bone</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -1036,6 +1406,11 @@
       <c r="B75" t="n">
         <v>14016003</v>
       </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Bone Marrow</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -1044,6 +1419,11 @@
       <c r="B76" t="n">
         <v>5798000</v>
       </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Diaphragm</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -1052,6 +1432,11 @@
       <c r="B77" t="n">
         <v>113276009</v>
       </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Bowel</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -1060,6 +1445,11 @@
       <c r="B78" t="n">
         <v>14742008</v>
       </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Large Bowel</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -1068,6 +1458,11 @@
       <c r="B79" t="n">
         <v>30315005</v>
       </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Small Bowel (small intestine)</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -1076,6 +1471,11 @@
       <c r="B80" t="n">
         <v>723375004</v>
       </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Brachial plexus Left</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -1084,6 +1484,11 @@
       <c r="B81" t="n">
         <v>723374000</v>
       </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Brachial plexus Right</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -1092,6 +1497,11 @@
       <c r="B82" t="n">
         <v>36582005</v>
       </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Brachial plexus</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -1100,6 +1510,11 @@
       <c r="B83" t="n">
         <v>12738006</v>
       </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Brain</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -1108,6 +1523,11 @@
       <c r="B84" t="n">
         <v>15926001</v>
       </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Brain Stem</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -1116,6 +1536,11 @@
       <c r="B85" t="n">
         <v>80248007</v>
       </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Breast Left</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -1124,6 +1549,11 @@
       <c r="B86" t="n">
         <v>73056007</v>
       </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Breast Right</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -1132,6 +1562,11 @@
       <c r="B87" t="n">
         <v>63762007</v>
       </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Both breasts</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -1140,6 +1575,11 @@
       <c r="B88" t="n">
         <v>955009</v>
       </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Bronchial tree</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -1148,6 +1588,11 @@
       <c r="B89" t="n">
         <v>736637009</v>
       </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Bronchial tree Left</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -1156,6 +1601,11 @@
       <c r="B90" t="n">
         <v>102297006</v>
       </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Main Bronchus</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -1164,6 +1614,11 @@
       <c r="B91" t="n">
         <v>75245000</v>
       </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Main Bronchus Left</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -1172,6 +1627,11 @@
       <c r="B92" t="n">
         <v>70074004</v>
       </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Main Bronchus Right</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -1180,6 +1640,11 @@
       <c r="B93" t="n">
         <v>736638004</v>
       </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Bronchial tree Right</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -1188,6 +1653,11 @@
       <c r="B94" t="n">
         <v>34381000</v>
       </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Anal Canal</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -1196,6 +1666,11 @@
       <c r="B95" t="n">
         <v>28700002</v>
       </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Carina</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -1204,6 +1679,11 @@
       <c r="B96" t="n">
         <v>38848004</v>
       </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Small bowel - Duodenum</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -1212,6 +1692,11 @@
       <c r="B97" t="n">
         <v>7173007</v>
       </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Cauda equina</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -1220,6 +1705,11 @@
       <c r="B98" t="n">
         <v>9284003</v>
       </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Penis Corpus Cavernosum</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -1228,6 +1718,11 @@
       <c r="B99" t="n">
         <v>279549004</v>
       </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Nasal Cavity</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -1236,6 +1731,11 @@
       <c r="B100" t="n">
         <v>74262004</v>
       </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Oral cavity</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -1244,6 +1744,11 @@
       <c r="B101" t="n">
         <v>32713005</v>
       </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Large bowel - Cecum</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -1252,6 +1757,11 @@
       <c r="B102" t="n">
         <v>113305005</v>
       </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Cerebellum</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -1260,6 +1770,11 @@
       <c r="B103" t="n">
         <v>83678007</v>
       </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Cerebrum</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -1268,6 +1783,11 @@
       <c r="B104" t="n">
         <v>72792008</v>
       </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>L Cerebrum</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -1276,6 +1796,11 @@
       <c r="B105" t="n">
         <v>5228007</v>
       </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>R Cerebrum</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -1284,6 +1809,11 @@
       <c r="B106" t="n">
         <v>71252005</v>
       </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Cervix of uterus</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -1292,6 +1822,11 @@
       <c r="B107" t="n">
         <v>78904004</v>
       </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Chest wall</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -1300,6 +1835,11 @@
       <c r="B108" t="n">
         <v>771318003</v>
       </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Left Chest Wall</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -1308,6 +1848,11 @@
       <c r="B109" t="n">
         <v>771319006</v>
       </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Right Chest Wall</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -1316,6 +1861,11 @@
       <c r="B110" t="n">
         <v>369387006</v>
       </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Pontine Cistern</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -1324,6 +1874,11 @@
       <c r="B111" t="n">
         <v>720617006</v>
       </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Clavicle Left</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -1332,6 +1887,11 @@
       <c r="B112" t="n">
         <v>720616002</v>
       </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Clavicle Right</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -1340,6 +1900,11 @@
       <c r="B113" t="n">
         <v>56193007</v>
       </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Third Cranial Nerve (Oculomotor nerve)</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -1348,6 +1913,11 @@
       <c r="B114" t="n">
         <v>762876001</v>
       </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Third Cranial Nerve (Oculomotor nerve) Left</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -1356,6 +1926,11 @@
       <c r="B115" t="n">
         <v>762877005</v>
       </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Third Cranial Nerve (Oculomotor nerve) Right</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -1364,6 +1939,11 @@
       <c r="B116" t="n">
         <v>21161002</v>
       </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Ninth Cranial Nerve (Glossopharyngeal nerve)</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -1372,6 +1952,11 @@
       <c r="B117" t="n">
         <v>734529006</v>
       </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Ninth Cranial Nerve (Glossopharyngeal nerve) Left</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -1380,6 +1965,11 @@
       <c r="B118" t="n">
         <v>27612005</v>
       </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Fifth Cranial Nerve (Trigeminal nerve)</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -1388,6 +1978,11 @@
       <c r="B119" t="n">
         <v>734431004</v>
       </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Fifth Cranial Nerve (Trigeminal nerve) Left</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -1396,6 +1991,11 @@
       <c r="B120" t="n">
         <v>734430003</v>
       </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Fifth Cranial Nerve (Trigeminal nerve) Right</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -1404,6 +2004,11 @@
       <c r="B121" t="n">
         <v>80622005</v>
       </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Sixth Cranial Nerve (Abducens nerve)</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -1412,6 +2017,11 @@
       <c r="B122" t="n">
         <v>771204007</v>
       </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Sixth Cranial Nerve (Abducens nerve) Left</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -1420,6 +2030,11 @@
       <c r="B123" t="n">
         <v>771205008</v>
       </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Sixth Cranial Nerve (Abducens nerve) Right</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -1428,6 +2043,11 @@
       <c r="B124" t="n">
         <v>56052001</v>
       </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Seventh Cranial Nerve (Facial)</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -1436,6 +2056,11 @@
       <c r="B125" t="n">
         <v>734418009</v>
       </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Seventh Cranial Nerve (Facial) Left</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -1444,6 +2069,11 @@
       <c r="B126" t="n">
         <v>734416008</v>
       </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Seventh Cranial Nerve (Facial) Right</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -1452,6 +2082,11 @@
       <c r="B127" t="n">
         <v>8598002</v>
       </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Eighth Cranial (Vestibulocochlear) Nerve</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -1460,6 +2095,11 @@
       <c r="B128" t="n">
         <v>763849008</v>
       </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Eighth Cranial (Vestibulocochlear) Nerve Left</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -1468,6 +2108,11 @@
       <c r="B129" t="n">
         <v>763850008</v>
       </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Eighth Cranial (Vestibulocochlear) Nerve Right</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -1476,6 +2121,11 @@
       <c r="B130" t="n">
         <v>15119000</v>
       </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Eleventh Cranial Nerve (Spinal accessory nerve)</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -1484,6 +2134,11 @@
       <c r="B131" t="n">
         <v>764765007</v>
       </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Eleventh Cranial Nerve (Spinal accessory nerve) Left</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -1492,6 +2147,11 @@
       <c r="B132" t="n">
         <v>764764006</v>
       </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Eleventh Cranial Nerve (Spinal accessory nerve) Right</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -1500,6 +2160,11 @@
       <c r="B133" t="n">
         <v>37899009</v>
       </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Twelfth Cranial Nerve (Hypoglossal nerve)</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -1508,6 +2173,11 @@
       <c r="B134" t="n">
         <v>771196008</v>
       </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Twelfth Cranial Nerve (Hypoglossal nerve) Left</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -1516,6 +2186,11 @@
       <c r="B135" t="n">
         <v>771197004</v>
       </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Twelfth Cranial Nerve (Hypoglossal nerve) Right</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -1524,6 +2199,11 @@
       <c r="B136" t="n">
         <v>80169004</v>
       </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Cochlea</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -1532,6 +2212,11 @@
       <c r="B137" t="n">
         <v>772064001</v>
       </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Left Cochlea</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -1540,6 +2225,11 @@
       <c r="B138" t="n">
         <v>772065000</v>
       </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Right Cochlea</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -1548,6 +2238,11 @@
       <c r="B139" t="n">
         <v>71854001</v>
       </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Colon</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -1556,6 +2251,11 @@
       <c r="B140" t="n">
         <v>9040008</v>
       </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Large bowel - Ascending colon</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -1564,6 +2264,11 @@
       <c r="B141" t="n">
         <v>32622004</v>
       </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Large bowel - Descending colon</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -1572,6 +2277,11 @@
       <c r="B142" t="n">
         <v>40638003</v>
       </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Set of eyes</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -1580,6 +2290,11 @@
       <c r="B143" t="n">
         <v>60184004</v>
       </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Large bowel - Sigmoid colon</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -1588,6 +2303,11 @@
       <c r="B144" t="n">
         <v>485005</v>
       </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Large bowel -Transverse colon</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -1596,6 +2316,11 @@
       <c r="B145" t="n">
         <v>28726007</v>
       </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Cornea</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -1604,6 +2329,11 @@
       <c r="B146" t="n">
         <v>11287007</v>
       </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Cornea Left</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -1612,6 +2342,11 @@
       <c r="B147" t="n">
         <v>36840001</v>
       </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Cornea Right</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -1620,6 +2355,11 @@
       <c r="B148" t="n">
         <v>36743005</v>
       </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Cribriform Plate</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -1628,6 +2368,11 @@
       <c r="B149" t="n">
         <v>8600008</v>
       </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Cricoid cartilage</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -1636,6 +2381,11 @@
       <c r="B150" t="n">
         <v>28276008</v>
       </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Cricopharyngeal part of inferior pharyngeal constrictor</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -1644,6 +2394,11 @@
       <c r="B151" t="n">
         <v>28231008</v>
       </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Gall bladder</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -1652,6 +2407,11 @@
       <c r="B152" t="n">
         <v>71934003</v>
       </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Genitals</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -1660,6 +2420,11 @@
       <c r="B153" t="n">
         <v>13561001</v>
       </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Lacrimal Gland</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -1668,6 +2433,11 @@
       <c r="B154" t="n">
         <v>49521004</v>
       </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>External Ear Left</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -1676,6 +2446,11 @@
       <c r="B155" t="n">
         <v>69838001</v>
       </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>External Ear Right</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -1684,6 +2459,11 @@
       <c r="B156" t="n">
         <v>28347008</v>
       </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>External Ear</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -1692,6 +2472,11 @@
       <c r="B157" t="n">
         <v>73401004</v>
       </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Internal Ear Left</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -1700,6 +2485,11 @@
       <c r="B158" t="n">
         <v>76473007</v>
       </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Internal Ear Right</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -1708,6 +2498,11 @@
       <c r="B159" t="n">
         <v>22945000</v>
       </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Internal Ear</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -1716,6 +2511,11 @@
       <c r="B160" t="n">
         <v>25342003</v>
       </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Middle Ear</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -1724,6 +2524,11 @@
       <c r="B161" t="n">
         <v>50460003</v>
       </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Middle Ear Left</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -1732,6 +2537,11 @@
       <c r="B162" t="n">
         <v>53434003</v>
       </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Middle Ear Right</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -1740,6 +2550,11 @@
       <c r="B163" t="n">
         <v>111002</v>
       </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Parathyroid gland</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -1748,6 +2563,11 @@
       <c r="B164" t="n">
         <v>127949000</v>
       </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Elbow</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -1756,6 +2576,11 @@
       <c r="B165" t="n">
         <v>368148009</v>
       </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Elbow Left</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -1764,6 +2589,11 @@
       <c r="B166" t="n">
         <v>368149001</v>
       </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Elbow Right</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -1772,6 +2602,11 @@
       <c r="B167" t="n">
         <v>32849002</v>
       </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Esophagus</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -1780,6 +2615,11 @@
       <c r="B168" t="n">
         <v>88481005</v>
       </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Sublingual gland</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -1788,6 +2628,11 @@
       <c r="B169" t="n">
         <v>385296007</v>
       </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Submandibular Gland</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -1796,6 +2641,11 @@
       <c r="B170" t="n">
         <v>8966001</v>
       </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Eyeball Left</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -1804,6 +2654,11 @@
       <c r="B171" t="n">
         <v>18944008</v>
       </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Eyeball Right</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -1812,6 +2667,11 @@
       <c r="B172" t="n">
         <v>9875009</v>
       </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Thymus Gland</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -1820,6 +2680,11 @@
       <c r="B173" t="n">
         <v>69748006</v>
       </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Thyroid Gland</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -1828,6 +2693,11 @@
       <c r="B174" t="n">
         <v>774117004</v>
       </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Femur Head &amp; Neck Left</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -1836,6 +2706,11 @@
       <c r="B175" t="n">
         <v>774118009</v>
       </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Femur Head &amp; Neck Right</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -1844,6 +2719,11 @@
       <c r="B176" t="n">
         <v>362907004</v>
       </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Femoral Joint Left</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -1852,6 +2732,11 @@
       <c r="B177" t="n">
         <v>362908009</v>
       </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Femoral Joint Right</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -1860,6 +2745,11 @@
       <c r="B178" t="n">
         <v>71341001</v>
       </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Femur Whole</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -1868,6 +2758,11 @@
       <c r="B179" t="n">
         <v>29627003</v>
       </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Femur Neck</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -1876,6 +2771,11 @@
       <c r="B180" t="n">
         <v>773710001</v>
       </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Femur Neck Right</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -1884,6 +2784,11 @@
       <c r="B181" t="n">
         <v>722739008</v>
       </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Femur Whole Right</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -1892,6 +2797,11 @@
       <c r="B182" t="n">
         <v>758654003</v>
       </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Femur Shaft Left</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -1900,6 +2810,11 @@
       <c r="B183" t="n">
         <v>758655002</v>
       </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Femur Shaft Right</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -1908,6 +2823,11 @@
       <c r="B184" t="n">
         <v>87342007</v>
       </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Fibula</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -1916,6 +2836,11 @@
       <c r="B185" t="n">
         <v>724231006</v>
       </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Fibula Left</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -1924,6 +2849,11 @@
       <c r="B186" t="n">
         <v>724230007</v>
       </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Fibula Right</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -1932,6 +2862,11 @@
       <c r="B187" t="n">
         <v>1307006</v>
       </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Glottis</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -1940,6 +2875,11 @@
       <c r="B188" t="n">
         <v>90228003</v>
       </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Hard palate</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -1948,6 +2888,11 @@
       <c r="B189" t="n">
         <v>12003004</v>
       </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Adrenal glands left</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -1956,6 +2901,11 @@
       <c r="B190" t="n">
         <v>29392005</v>
       </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Adrenal glands right</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -1964,6 +2914,11 @@
       <c r="B191" t="n">
         <v>80891009</v>
       </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Heart</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -1972,6 +2927,11 @@
       <c r="B192" t="n">
         <v>80984007</v>
       </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Lacrimal Gland Left</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -1980,6 +2940,11 @@
       <c r="B193" t="n">
         <v>18855009</v>
       </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Lacrimal Gland Right</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -1988,6 +2953,11 @@
       <c r="B194" t="n">
         <v>64303008</v>
       </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Sublingual gland</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -1996,6 +2966,11 @@
       <c r="B195" t="n">
         <v>81831003</v>
       </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Sublingual gland</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -2004,6 +2979,11 @@
       <c r="B196" t="n">
         <v>5366008</v>
       </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Hippocampus</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -2012,6 +2992,11 @@
       <c r="B197" t="n">
         <v>48065005</v>
       </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Submandibular Gland Left</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -2020,6 +3005,11 @@
       <c r="B198" t="n">
         <v>91590006</v>
       </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Submandibular Gland Right</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -2028,6 +3018,11 @@
       <c r="B199" t="n">
         <v>264483005</v>
       </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Hypothalamus</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -2036,6 +3031,11 @@
       <c r="B200" t="n">
         <v>181249005</v>
       </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Small bowel - Ileum</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -2044,6 +3044,11 @@
       <c r="B201" t="n">
         <v>21306003</v>
       </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Small bowel - Jejunum</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -2052,6 +3057,11 @@
       <c r="B202" t="n">
         <v>16953009</v>
       </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Elbow joint</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -2060,6 +3070,11 @@
       <c r="B203" t="n">
         <v>85537004</v>
       </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Glenohumeral Joint</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -2068,6 +3083,11 @@
       <c r="B204" t="n">
         <v>53620006</v>
       </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Temperomandibular Joint</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -2076,6 +3096,11 @@
       <c r="B205" t="n">
         <v>50403003</v>
       </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Renal cortex for both Kidneys</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -2084,6 +3109,11 @@
       <c r="B206" t="n">
         <v>74033008</v>
       </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Renal Hilum for both Kidneys</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -2092,6 +3122,11 @@
       <c r="B207" t="n">
         <v>719460003</v>
       </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Humerus Left</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -2100,6 +3135,11 @@
       <c r="B208" t="n">
         <v>719461004</v>
       </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Humerus Right</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -2108,6 +3148,11 @@
       <c r="B209" t="n">
         <v>64033007</v>
       </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Both Kidneys</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -2116,6 +3161,11 @@
       <c r="B210" t="n">
         <v>72696002</v>
       </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Knee</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -2124,6 +3174,11 @@
       <c r="B211" t="n">
         <v>81502006</v>
       </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Laryngeal pharynx</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -2132,6 +3187,11 @@
       <c r="B212" t="n">
         <v>4596009</v>
       </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Larynx</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -2140,6 +3200,11 @@
       <c r="B213" t="n">
         <v>81083006</v>
       </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Lips</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -2148,6 +3213,11 @@
       <c r="B214" t="n">
         <v>725284004</v>
       </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>Temperomandibular Joint Left</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
@@ -2156,6 +3226,11 @@
       <c r="B215" t="n">
         <v>725285003</v>
       </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Temperomandibular Joint Right</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -2164,6 +3239,11 @@
       <c r="B216" t="n">
         <v>10200004</v>
       </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Liver</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -2172,6 +3252,11 @@
       <c r="B217" t="n">
         <v>83251001</v>
       </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>Frontal Lobe</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -2180,6 +3265,11 @@
       <c r="B218" t="n">
         <v>18639004</v>
       </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>Kidney Left</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -2188,6 +3278,11 @@
       <c r="B219" t="n">
         <v>38594006</v>
       </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Renal pelvis Left</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -2196,6 +3291,11 @@
       <c r="B220" t="n">
         <v>54444007</v>
       </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>Renal pelvis Right</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -2204,6 +3304,11 @@
       <c r="B221" t="n">
         <v>9846003</v>
       </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Kidney Right</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -2212,6 +3317,11 @@
       <c r="B222" t="n">
         <v>31065004</v>
       </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Occipital Lobe</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -2220,6 +3330,11 @@
       <c r="B223" t="n">
         <v>16630005</v>
       </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>Parietal Lobe</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -2228,6 +3343,11 @@
       <c r="B224" t="n">
         <v>82169009</v>
       </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Knee Left</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -2236,6 +3356,11 @@
       <c r="B225" t="n">
         <v>6757004</v>
       </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>Knee Right</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -2244,6 +3369,11 @@
       <c r="B226" t="n">
         <v>78277001</v>
       </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>Temporal Lobe</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -2252,6 +3382,11 @@
       <c r="B227" t="n">
         <v>72410000</v>
       </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Mediastinum</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -2260,6 +3395,11 @@
       <c r="B228" t="n">
         <v>71616004</v>
       </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>Muscle</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -2268,6 +3408,11 @@
       <c r="B229" t="n">
         <v>4866005</v>
       </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>Constrictor Muscle of Pharynx</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
@@ -2276,6 +3421,11 @@
       <c r="B230" t="n">
         <v>88258005</v>
       </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>Lens Left</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
@@ -2284,6 +3434,11 @@
       <c r="B231" t="n">
         <v>72345007</v>
       </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>Lens Right</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
@@ -2292,6 +3447,11 @@
       <c r="B232" t="n">
         <v>79368004</v>
       </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>Masseter Muscle</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -2300,6 +3460,11 @@
       <c r="B233" t="n">
         <v>71836000</v>
       </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>Nasal part of pharynx</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
@@ -2308,6 +3473,11 @@
       <c r="B234" t="n">
         <v>59441001</v>
       </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>Lymph Node</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
@@ -2316,6 +3486,11 @@
       <c r="B235" t="n">
         <v>16051009</v>
       </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>Set of apical axillary lymphatic vessels</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
@@ -2324,6 +3499,11 @@
       <c r="B236" t="n">
         <v>283001</v>
       </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>Set of central axillary lymphatic vessels</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
@@ -2332,6 +3512,11 @@
       <c r="B237" t="n">
         <v>746225004</v>
       </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>Axillary lymphatic chain Left</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -2340,6 +3525,11 @@
       <c r="B238" t="n">
         <v>33770006</v>
       </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>lateral axillary lymph nodes</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
@@ -2348,6 +3538,11 @@
       <c r="B239" t="n">
         <v>69691007</v>
       </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>Set of pectoral axillary lymphatic vessels</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
@@ -2356,6 +3551,11 @@
       <c r="B240" t="n">
         <v>746224000</v>
       </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>Axillary lymphatic chain Right</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
@@ -2364,6 +3564,11 @@
       <c r="B241" t="n">
         <v>12196003</v>
       </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>Set of subscapular axillary lymphatic vessels</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
@@ -2372,6 +3577,11 @@
       <c r="B242" t="n">
         <v>196821008</v>
       </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>Lymph nodes of thorax - Brachiocephalic</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
@@ -2380,6 +3590,11 @@
       <c r="B243" t="n">
         <v>279816002</v>
       </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>Lymph nodes of thorax - Bronchopulmonary</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
@@ -2388,6 +3603,11 @@
       <c r="B244" t="n">
         <v>196751009</v>
       </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>Lymph nodes of thorax - Diaphragmatic</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
@@ -2396,6 +3616,11 @@
       <c r="B245" t="n">
         <v>245353004</v>
       </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>Lymph nodes of pelvis - common iliac Left</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
@@ -2404,6 +3629,11 @@
       <c r="B246" t="n">
         <v>245282001</v>
       </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>Lymph nodes IMN</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
@@ -2412,6 +3642,11 @@
       <c r="B247" t="n">
         <v>279763008</v>
       </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>Lymph nodes of pelvis - inguinofemoral</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
@@ -2420,6 +3655,11 @@
       <c r="B248" t="n">
         <v>64038003</v>
       </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>Lymph nodes of thorax - Intercostal</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
@@ -2428,6 +3668,11 @@
       <c r="B249" t="n">
         <v>127938006</v>
       </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>Lymph nodes of thorax - Ligamentum arteriosum</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
@@ -2436,6 +3681,11 @@
       <c r="B250" t="n">
         <v>62683002</v>
       </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>Lymph nodes of thorax - Mediastinal</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
@@ -2444,6 +3694,11 @@
       <c r="B251" t="n">
         <v>36086000</v>
       </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>Lymph nodes of pelvis - obturator Left</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
@@ -2452,6 +3707,11 @@
       <c r="B252" t="n">
         <v>35783009</v>
       </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>Lymph nodes of abdomen- para-aortic</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
@@ -2460,6 +3720,11 @@
       <c r="B253" t="n">
         <v>368550005</v>
       </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>Lymph nodes of thorax - Paramammary Left</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
@@ -2468,6 +3733,11 @@
       <c r="B254" t="n">
         <v>82365008</v>
       </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>Lymph nodes of thorax - Parasternal Left</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
@@ -2476,6 +3746,11 @@
       <c r="B255" t="n">
         <v>245288002</v>
       </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>Porta hepatis</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
@@ -2484,6 +3759,11 @@
       <c r="B256" t="n">
         <v>45206002</v>
       </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>Nose</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
@@ -2492,6 +3772,11 @@
       <c r="B257" t="n">
         <v>1187336003</v>
       </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>Lymph nodes of pelvis - presacral Left</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
@@ -2500,6 +3785,11 @@
       <c r="B258" t="n">
         <v>196662004</v>
       </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>Lymph nodes of thorax - Pulmonary Left</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
@@ -2508,6 +3798,11 @@
       <c r="B259" t="n">
         <v>76838003</v>
       </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>Supraclavicular Lymph Node Left</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
@@ -2516,6 +3811,11 @@
       <c r="B260" t="n">
         <v>245283006</v>
       </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>Lymph nodes of thorax - Tracheobronchial</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
@@ -2524,6 +3824,11 @@
       <c r="B261" t="n">
         <v>74298007</v>
       </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>Frontal Lobe Left</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
@@ -2532,6 +3837,11 @@
       <c r="B262" t="n">
         <v>15046008</v>
       </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>Frontal Lobe Right</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
@@ -2540,6 +3850,11 @@
       <c r="B263" t="n">
         <v>40958000</v>
       </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>Nerve Root</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
@@ -2548,6 +3863,11 @@
       <c r="B264" t="n">
         <v>32373000</v>
       </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>Occipital Lobe Left</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
@@ -2556,6 +3876,11 @@
       <c r="B265" t="n">
         <v>59144001</v>
       </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>Occipital Lobe Right</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
@@ -2564,6 +3889,11 @@
       <c r="B266" t="n">
         <v>244453006</v>
       </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>Optic chiasm</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
@@ -2572,6 +3902,11 @@
       <c r="B267" t="n">
         <v>9003000</v>
       </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>Parietal Lobe Left</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
@@ -2580,6 +3915,11 @@
       <c r="B268" t="n">
         <v>47876008</v>
       </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>Parietal Lobe Right</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
@@ -2588,6 +3928,11 @@
       <c r="B269" t="n">
         <v>18234004</v>
       </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>Optic nerve</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
@@ -2596,6 +3941,11 @@
       <c r="B270" t="n">
         <v>314158000</v>
       </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>Temporal Lobe Left</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
@@ -2604,6 +3954,11 @@
       <c r="B271" t="n">
         <v>314157005</v>
       </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>Temporal Lobe Right</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
@@ -2612,6 +3967,11 @@
       <c r="B272" t="n">
         <v>44029006</v>
       </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>Lung Left</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
@@ -2620,6 +3980,11 @@
       <c r="B273" t="n">
         <v>245523005</v>
       </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>Lung - lower lobe of left</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
@@ -2628,6 +3993,11 @@
       <c r="B274" t="n">
         <v>44714003</v>
       </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>Lung - upper lobe of left</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
@@ -2636,6 +4006,11 @@
       <c r="B275" t="n">
         <v>362898004</v>
       </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>Lung Right</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
@@ -2644,6 +4019,11 @@
       <c r="B276" t="n">
         <v>245519002</v>
       </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>Lung - lower lobe of right</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
@@ -2652,6 +4032,11 @@
       <c r="B277" t="n">
         <v>72481006</v>
       </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>Lung - middle lobe of right</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
@@ -2660,6 +4045,11 @@
       <c r="B278" t="n">
         <v>245517000</v>
       </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>Lung - upper lobe of right</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
@@ -2668,6 +4058,11 @@
       <c r="B279" t="n">
         <v>39607008</v>
       </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>Pair of Lungs</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
@@ -2676,6 +4071,11 @@
       <c r="B280" t="n">
         <v>34080009</v>
       </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>Malleus</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
@@ -2684,6 +4084,11 @@
       <c r="B281" t="n">
         <v>70925003</v>
       </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>Maxilla</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
@@ -2692,6 +4097,11 @@
       <c r="B282" t="n">
         <v>773937007</v>
       </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>Maxilla Left</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
@@ -2700,6 +4110,11 @@
       <c r="B283" t="n">
         <v>773936003</v>
       </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>Maxilla Right</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
@@ -2708,6 +4123,11 @@
       <c r="B284" t="n">
         <v>721896007</v>
       </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>Orbit Left</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
@@ -2716,6 +4136,11 @@
       <c r="B285" t="n">
         <v>721897003</v>
       </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>Orbit Right</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
@@ -2724,6 +4149,11 @@
       <c r="B286" t="n">
         <v>31389004</v>
       </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>Oral part of pharynx</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
@@ -2732,6 +4162,11 @@
       <c r="B287" t="n">
         <v>244803008</v>
       </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>Pharynx - Inferior pharyngeal constrictor</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
@@ -2740,6 +4175,11 @@
       <c r="B288" t="n">
         <v>244802003</v>
       </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>Pharynx - Middle pharyngeal constrictor</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
@@ -2748,6 +4188,11 @@
       <c r="B289" t="n">
         <v>244800006</v>
       </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>Pharynx - Superior pharyngeal constrictor</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
@@ -2756,6 +4201,11 @@
       <c r="B290" t="n">
         <v>52737000</v>
       </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>Penile Bulb</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
@@ -2764,6 +4214,11 @@
       <c r="B291" t="n">
         <v>724379002</v>
       </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>Optic nerve - left</t>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
@@ -2772,6 +4227,11 @@
       <c r="B292" t="n">
         <v>43981004</v>
       </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>Ovary Left</t>
+        </is>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
@@ -2780,6 +4240,11 @@
       <c r="B293" t="n">
         <v>20837000</v>
       </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>Ovary Right</t>
+        </is>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
@@ -2788,6 +4253,11 @@
       <c r="B294" t="n">
         <v>56329008</v>
       </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>Pituitary gland</t>
+        </is>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
@@ -2796,6 +4266,11 @@
       <c r="B295" t="n">
         <v>314399000</v>
       </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>Prostate</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
@@ -2804,6 +4279,11 @@
       <c r="B296" t="n">
         <v>44178003</v>
       </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>Parotid Left</t>
+        </is>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
@@ -2812,6 +4292,11 @@
       <c r="B297" t="n">
         <v>85706002</v>
       </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>Parotid Right</t>
+        </is>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
@@ -2820,6 +4305,11 @@
       <c r="B298" t="n">
         <v>34402009</v>
       </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>Large bowel - Rectum</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
@@ -2828,6 +4318,11 @@
       <c r="B299" t="n">
         <v>62397004</v>
       </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>Sacral Plexus</t>
+        </is>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
@@ -2836,6 +4331,11 @@
       <c r="B300" t="n">
         <v>41695006</v>
       </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>Scalp</t>
+        </is>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
@@ -2844,6 +4344,11 @@
       <c r="B301" t="n">
         <v>734356009</v>
       </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>Pubic bone Left</t>
+        </is>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
@@ -2852,6 +4357,11 @@
       <c r="B302" t="n">
         <v>734357000</v>
       </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>Pubic bone Right</t>
+        </is>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
@@ -2860,6 +4370,11 @@
       <c r="B303" t="n">
         <v>719464007</v>
       </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>Radius Left</t>
+        </is>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
@@ -2868,6 +4383,11 @@
       <c r="B304" t="n">
         <v>719465008</v>
       </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>Radius Right</t>
+        </is>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
@@ -2876,6 +4396,11 @@
       <c r="B305" t="n">
         <v>58443009</v>
       </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>Retina Left</t>
+        </is>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
@@ -2884,6 +4409,11 @@
       <c r="B306" t="n">
         <v>5597008</v>
       </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>Retina Right</t>
+        </is>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
@@ -2892,6 +4422,11 @@
       <c r="B307" t="n">
         <v>5665001</v>
       </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>Both Retinas</t>
+        </is>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
@@ -2900,6 +4435,11 @@
       <c r="B308" t="n">
         <v>113197003</v>
       </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>Any Rib volume</t>
+        </is>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
@@ -2908,6 +4448,11 @@
       <c r="B309" t="n">
         <v>48535007</v>
       </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>First Rib Right</t>
+        </is>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
@@ -2916,6 +4461,11 @@
       <c r="B310" t="n">
         <v>78247007</v>
       </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>Second rib Left</t>
+        </is>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
@@ -2924,6 +4474,11 @@
       <c r="B311" t="n">
         <v>25888004</v>
       </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>Third rib Left</t>
+        </is>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
@@ -2932,6 +4487,11 @@
       <c r="B312" t="n">
         <v>25523003</v>
       </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>Fourth rib Left</t>
+        </is>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
@@ -2940,6 +4500,11 @@
       <c r="B313" t="n">
         <v>15339008</v>
       </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>Fifth rib Left</t>
+        </is>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
@@ -2948,6 +4513,11 @@
       <c r="B314" t="n">
         <v>59558009</v>
       </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>Sixth rib Left</t>
+        </is>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
@@ -2956,6 +4526,11 @@
       <c r="B315" t="n">
         <v>24915002</v>
       </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>Seventh rib Left</t>
+        </is>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
@@ -2964,6 +4539,11 @@
       <c r="B316" t="n">
         <v>5953002</v>
       </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>Eighth rib Left</t>
+        </is>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
@@ -2972,6 +4552,11 @@
       <c r="B317" t="n">
         <v>22565002</v>
       </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>Ninth rib Left</t>
+        </is>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
@@ -2980,6 +4565,11 @@
       <c r="B318" t="n">
         <v>77644006</v>
       </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>Tenth rib Left</t>
+        </is>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
@@ -2988,6 +4578,11 @@
       <c r="B319" t="n">
         <v>58830002</v>
       </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>Eleventh rib Left</t>
+        </is>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
@@ -2996,6 +4591,11 @@
       <c r="B320" t="n">
         <v>43993008</v>
       </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>Twelfth rib Left</t>
+        </is>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
@@ -3004,6 +4604,11 @@
       <c r="B321" t="n">
         <v>20795001</v>
       </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>Skin</t>
+        </is>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
@@ -3012,6 +4617,11 @@
       <c r="B322" t="n">
         <v>1193560003</v>
       </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>Thirteenth rib Right</t>
+        </is>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
@@ -3020,6 +4630,11 @@
       <c r="B323" t="n">
         <v>48014002</v>
       </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>Skin of Perineum</t>
+        </is>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
@@ -3028,6 +4643,11 @@
       <c r="B324" t="n">
         <v>719627005</v>
       </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>Scapula Left</t>
+        </is>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
@@ -3036,6 +4656,11 @@
       <c r="B325" t="n">
         <v>719628000</v>
       </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>Scapula Right</t>
+        </is>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
@@ -3044,6 +4669,11 @@
       <c r="B326" t="n">
         <v>789564000</v>
       </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>Retropharyngeal space</t>
+        </is>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
@@ -3052,6 +4682,11 @@
       <c r="B327" t="n">
         <v>79535005</v>
       </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>Frontal Sinus Left</t>
+        </is>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
@@ -3060,6 +4695,11 @@
       <c r="B328" t="n">
         <v>45038002</v>
       </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>Frontal Sinus Right</t>
+        </is>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
@@ -3068,6 +4708,11 @@
       <c r="B329" t="n">
         <v>41178004</v>
       </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>Internal Anal Sphincter</t>
+        </is>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
@@ -3076,6 +4721,11 @@
       <c r="B330" t="n">
         <v>2695000</v>
       </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>Maxillary Sinus</t>
+        </is>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
@@ -3084,6 +4734,11 @@
       <c r="B331" t="n">
         <v>80376001</v>
       </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>Maxillary Sinus</t>
+        </is>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
@@ -3092,6 +4747,11 @@
       <c r="B332" t="n">
         <v>61853006</v>
       </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>Vertebral canal</t>
+        </is>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
@@ -3100,6 +4760,11 @@
       <c r="B333" t="n">
         <v>48498009</v>
       </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>Sphenoidal Sinus Left</t>
+        </is>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
@@ -3108,6 +4773,11 @@
       <c r="B334" t="n">
         <v>54702002</v>
       </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>Sphenoidal Sinus Right</t>
+        </is>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
@@ -3116,6 +4786,11 @@
       <c r="B335" t="n">
         <v>54785003</v>
       </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>Spinal Cord Cervical</t>
+        </is>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
@@ -3124,6 +4799,11 @@
       <c r="B336" t="n">
         <v>60051002</v>
       </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>Spinal Cord Lumbar</t>
+        </is>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
@@ -3132,6 +4812,11 @@
       <c r="B337" t="n">
         <v>89546000</v>
       </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>Skeletal system of head</t>
+        </is>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
@@ -3140,6 +4825,11 @@
       <c r="B338" t="n">
         <v>11478001</v>
       </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>Spinal Cord Sacral</t>
+        </is>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
@@ -3148,6 +4838,11 @@
       <c r="B339" t="n">
         <v>50800009</v>
       </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>Spinal Cord Thoracic</t>
+        </is>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
@@ -3156,6 +4851,11 @@
       <c r="B340" t="n">
         <v>25270003</v>
       </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>Penis Corpus Spongiosum</t>
+        </is>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
@@ -3164,6 +4864,11 @@
       <c r="B341" t="n">
         <v>69695003</v>
       </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>Stomach</t>
+        </is>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
@@ -3172,6 +4877,11 @@
       <c r="B342" t="n">
         <v>279245009</v>
       </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>Ventricular System of the Brain</t>
+        </is>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
@@ -3180,6 +4890,11 @@
       <c r="B343" t="n">
         <v>13024002</v>
       </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>Tendon</t>
+        </is>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
@@ -3188,6 +4903,11 @@
       <c r="B344" t="n">
         <v>70567001</v>
       </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>Quadriceps Tendon</t>
+        </is>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
@@ -3196,6 +4916,11 @@
       <c r="B345" t="n">
         <v>42774007</v>
       </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>Testis</t>
+        </is>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
@@ -3204,6 +4929,11 @@
       <c r="B346" t="n">
         <v>37554007</v>
       </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>Thecal Sac</t>
+        </is>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
@@ -3212,6 +4942,11 @@
       <c r="B347" t="n">
         <v>1732005</v>
       </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>Thoracic Duct</t>
+        </is>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
@@ -3220,6 +4955,11 @@
       <c r="B348" t="n">
         <v>78961009</v>
       </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>Spleen</t>
+        </is>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
@@ -3228,6 +4968,11 @@
       <c r="B349" t="n">
         <v>35378004</v>
       </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>Splenic hilum</t>
+        </is>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
@@ -3236,6 +4981,11 @@
       <c r="B350" t="n">
         <v>21974007</v>
       </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>Tongue</t>
+        </is>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
@@ -3244,6 +4994,11 @@
       <c r="B351" t="n">
         <v>22718006</v>
       </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>Stapes Left</t>
+        </is>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
@@ -3252,6 +5007,11 @@
       <c r="B352" t="n">
         <v>47975008</v>
       </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>Base of Tongue</t>
+        </is>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
@@ -3260,6 +5020,11 @@
       <c r="B353" t="n">
         <v>61344008</v>
       </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>Oral Tongue</t>
+        </is>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
@@ -3268,6 +5033,11 @@
       <c r="B354" t="n">
         <v>738830004</v>
       </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>Right Oral Tonque</t>
+        </is>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
@@ -3276,6 +5046,11 @@
       <c r="B355" t="n">
         <v>44567001</v>
       </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>Trachea</t>
+        </is>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
@@ -3284,6 +5059,11 @@
       <c r="B356" t="n">
         <v>87953007</v>
       </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>Both Ureters</t>
+        </is>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
@@ -3292,6 +5072,11 @@
       <c r="B357" t="n">
         <v>13648007</v>
       </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>Urethra</t>
+        </is>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
@@ -3300,6 +5085,11 @@
       <c r="B358" t="n">
         <v>63239009</v>
       </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>Testis Left</t>
+        </is>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
@@ -3308,6 +5098,11 @@
       <c r="B359" t="n">
         <v>15598003</v>
       </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>Testis Right</t>
+        </is>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
@@ -3316,6 +5111,11 @@
       <c r="B360" t="n">
         <v>35039007</v>
       </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>Uterus</t>
+        </is>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
@@ -3324,6 +5124,11 @@
       <c r="B361" t="n">
         <v>72107004</v>
       </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>Azygos Vein</t>
+        </is>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
@@ -3332,6 +5137,11 @@
       <c r="B362" t="n">
         <v>771202006</v>
       </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>Brachiocephalic vein Left</t>
+        </is>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
@@ -3340,6 +5150,11 @@
       <c r="B363" t="n">
         <v>771203001</v>
       </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>Brachiocephalic vein Right</t>
+        </is>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
@@ -3348,6 +5163,11 @@
       <c r="B364" t="n">
         <v>63507001</v>
       </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>External iliac vein Left</t>
+        </is>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
@@ -3356,6 +5176,11 @@
       <c r="B365" t="n">
         <v>75573002</v>
       </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>Tonsil</t>
+        </is>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
@@ -3364,6 +5189,11 @@
       <c r="B366" t="n">
         <v>46027005</v>
       </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>Common iliac vein Right</t>
+        </is>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
@@ -3372,6 +5202,11 @@
       <c r="B367" t="n">
         <v>71585003</v>
       </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>external jugular vein left</t>
+        </is>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
@@ -3380,6 +5215,11 @@
       <c r="B368" t="n">
         <v>12123001</v>
       </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>Internal jugular vein left</t>
+        </is>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
@@ -3388,6 +5228,11 @@
       <c r="B369" t="n">
         <v>32764006</v>
       </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>Portal Vein</t>
+        </is>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
@@ -3396,6 +5241,11 @@
       <c r="B370" t="n">
         <v>430757002</v>
       </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>Pulmonary vein</t>
+        </is>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
@@ -3404,6 +5254,11 @@
       <c r="B371" t="n">
         <v>9454009</v>
       </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>Subclavian Vein</t>
+        </is>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
@@ -3412,6 +5267,11 @@
       <c r="B372" t="n">
         <v>64131007</v>
       </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>Inferior vena cava</t>
+        </is>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
@@ -3420,6 +5280,11 @@
       <c r="B373" t="n">
         <v>35532006</v>
       </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>Superior vena cava</t>
+        </is>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
@@ -3428,6 +5293,11 @@
       <c r="B374" t="n">
         <v>263355003</v>
       </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>Vagina</t>
+        </is>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
@@ -3436,6 +5306,11 @@
       <c r="B375" t="n">
         <v>91134007</v>
       </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>Mitral Valve</t>
+        </is>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
@@ -3444,6 +5319,11 @@
       <c r="B376" t="n">
         <v>39057004</v>
       </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>Pulmonic Valve</t>
+        </is>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
@@ -3452,6 +5332,11 @@
       <c r="B377" t="n">
         <v>46030003</v>
       </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>Tricuspid Valve</t>
+        </is>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
@@ -3460,6 +5345,11 @@
       <c r="B378" t="n">
         <v>21814001</v>
       </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>Ventricle (cardiac)</t>
+        </is>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
@@ -3468,6 +5358,11 @@
       <c r="B379" t="n">
         <v>87878005</v>
       </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>Ventricle (cardiac) Left</t>
+        </is>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
@@ -3476,6 +5371,11 @@
       <c r="B380" t="n">
         <v>46105003</v>
       </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>Vocal Cords</t>
+        </is>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
@@ -3484,6 +5384,11 @@
       <c r="B381" t="n">
         <v>45292006</v>
       </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>Vulva</t>
+        </is>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
@@ -3492,6 +5397,11 @@
       <c r="B382" t="n">
         <v>261188006</v>
       </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>Only the body</t>
+        </is>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
@@ -3500,6 +5410,11 @@
       <c r="B383" t="n">
         <v>52940008</v>
       </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>Thyroid cartilage</t>
+        </is>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
@@ -3508,6 +5423,11 @@
       <c r="B384" t="n">
         <v>34202007</v>
       </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>Aortic Valve</t>
+        </is>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
@@ -3516,6 +5436,11 @@
       <c r="B385" t="n">
         <v>1172006</v>
       </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>Cervical vertebrae - Bony part of dens of axis</t>
+        </is>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
@@ -3524,6 +5449,11 @@
       <c r="B386" t="n">
         <v>14806007</v>
       </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>Atlas - C1</t>
+        </is>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
@@ -3532,6 +5462,11 @@
       <c r="B387" t="n">
         <v>39976000</v>
       </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>Axis - C2</t>
+        </is>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
@@ -3540,6 +5475,11 @@
       <c r="B388" t="n">
         <v>91116008</v>
       </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>Cervical vertebra - C3</t>
+        </is>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
@@ -3548,6 +5488,11 @@
       <c r="B389" t="n">
         <v>14705001</v>
       </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>Cervical vertebra - C4</t>
+        </is>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
@@ -3556,6 +5501,11 @@
       <c r="B390" t="n">
         <v>67479001</v>
       </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>Cervical vertebra - C5</t>
+        </is>
+      </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
@@ -3564,6 +5514,11 @@
       <c r="B391" t="n">
         <v>88298007</v>
       </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>Cervical vertebra - C6</t>
+        </is>
+      </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
@@ -3572,6 +5527,11 @@
       <c r="B392" t="n">
         <v>16126006</v>
       </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>Cervical vertebra - C7</t>
+        </is>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
@@ -3580,6 +5540,11 @@
       <c r="B393" t="n">
         <v>73903008</v>
       </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>Lumbar Vertebrae</t>
+        </is>
+      </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
@@ -3588,6 +5553,11 @@
       <c r="B394" t="n">
         <v>61032001</v>
       </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>Lumbar Vertebra L1</t>
+        </is>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
@@ -3596,6 +5566,11 @@
       <c r="B395" t="n">
         <v>53983007</v>
       </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>Lumbar Vertebra L2</t>
+        </is>
+      </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
@@ -3604,6 +5579,11 @@
       <c r="B396" t="n">
         <v>55492004</v>
       </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>Lumbar Vertebra L3</t>
+        </is>
+      </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
@@ -3612,6 +5592,11 @@
       <c r="B397" t="n">
         <v>71996003</v>
       </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>Lumbar Vertebra L4</t>
+        </is>
+      </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
@@ -3620,6 +5605,11 @@
       <c r="B398" t="n">
         <v>21799000</v>
       </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>Lumbar Vertebra L5</t>
+        </is>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
@@ -3628,6 +5618,11 @@
       <c r="B399" t="n">
         <v>87141009</v>
       </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>Sacral Vertebra</t>
+        </is>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
@@ -3636,6 +5631,11 @@
       <c r="B400" t="n">
         <v>65985001</v>
       </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>Sacral Vertebra S1</t>
+        </is>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
@@ -3644,6 +5644,11 @@
       <c r="B401" t="n">
         <v>11808007</v>
       </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>Sacral Vertebra S2</t>
+        </is>
+      </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
@@ -3652,6 +5657,11 @@
       <c r="B402" t="n">
         <v>49967005</v>
       </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>Sacral Vertebra S3</t>
+        </is>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
@@ -3660,6 +5670,11 @@
       <c r="B403" t="n">
         <v>69950008</v>
       </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>Sacral Vertebra S4</t>
+        </is>
+      </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
@@ -3668,6 +5683,11 @@
       <c r="B404" t="n">
         <v>21452006</v>
       </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>Sacral Vertebra S5</t>
+        </is>
+      </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
@@ -3676,6 +5696,11 @@
       <c r="B405" t="n">
         <v>35769007</v>
       </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>Thoracic Vertebra</t>
+        </is>
+      </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
@@ -3684,6 +5709,11 @@
       <c r="B406" t="n">
         <v>56094003</v>
       </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>Thoracic Vertebra T1</t>
+        </is>
+      </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
@@ -3692,6 +5722,11 @@
       <c r="B407" t="n">
         <v>50060007</v>
       </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>Thoracic Vertebra T2</t>
+        </is>
+      </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
@@ -3700,6 +5735,11 @@
       <c r="B408" t="n">
         <v>73138009</v>
       </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>Thoracic Vertebra T3</t>
+        </is>
+      </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
@@ -3708,6 +5748,11 @@
       <c r="B409" t="n">
         <v>86197001</v>
       </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>Thoracic Vertebra T4</t>
+        </is>
+      </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
@@ -3716,6 +5761,11 @@
       <c r="B410" t="n">
         <v>6105006</v>
       </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>Thoracic Vertebra T5</t>
+        </is>
+      </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
@@ -3724,6 +5774,11 @@
       <c r="B411" t="n">
         <v>32430008</v>
       </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>Thoracic Vertebra T6</t>
+        </is>
+      </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
@@ -3732,6 +5787,11 @@
       <c r="B412" t="n">
         <v>71737002</v>
       </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>Thoracic Vertebra T7</t>
+        </is>
+      </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
@@ -3740,6 +5800,11 @@
       <c r="B413" t="n">
         <v>77435000</v>
       </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>Thoracic Vertebra T8</t>
+        </is>
+      </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
@@ -3748,6 +5813,11 @@
       <c r="B414" t="n">
         <v>33766003</v>
       </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>Thoracic Vertebra T9</t>
+        </is>
+      </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
@@ -3756,6 +5826,11 @@
       <c r="B415" t="n">
         <v>48405002</v>
       </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>Thoracic Vertebra T10</t>
+        </is>
+      </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
@@ -3764,6 +5839,11 @@
       <c r="B416" t="n">
         <v>52120002</v>
       </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>Thoracic Vertebra T11</t>
+        </is>
+      </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
@@ -3772,6 +5852,11 @@
       <c r="B417" t="n">
         <v>280849005</v>
       </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>Thoracic Vertebra T12</t>
+        </is>
+      </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
@@ -3780,6 +5865,11 @@
       <c r="B418" t="n">
         <v>3572006</v>
       </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>Vertebral Bodies</t>
+        </is>
+      </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
@@ -3788,6 +5878,11 @@
       <c r="B419" t="n">
         <v>1187337007</v>
       </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>Jugular Fossa</t>
+        </is>
+      </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
@@ -3796,6 +5891,11 @@
       <c r="B420" t="n">
         <v>35763008</v>
       </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>Posterior Fossa</t>
+        </is>
+      </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
@@ -3804,6 +5904,11 @@
       <c r="B421" t="n">
         <v>87166008</v>
       </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>Vomer</t>
+        </is>
+      </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
@@ -3811,6 +5916,11 @@
       </c>
       <c r="B422" t="n">
         <v>24999009</v>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>Sphenoidal Sinus</t>
+        </is>
       </c>
     </row>
   </sheetData>
